--- a/PredictionSheets/VM 2014 Tippekonkuranse - Ragnar.xlsx
+++ b/PredictionSheets/VM 2014 Tippekonkuranse - Ragnar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Documents\GitHub\VMTipping\PredictionSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -421,7 +421,7 @@
     <t>Ragnar Stølsmark</t>
   </si>
   <si>
-    <t>Cote d ivoire</t>
+    <t>Côte d ivoire</t>
   </si>
 </sst>
 </file>
@@ -2783,7 +2783,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
